--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Team\EscapeIsekai\Assets\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Team\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA165CD-FF3B-4128-8E89-35CE403D709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007C6617-9F32-4508-997B-B85869D6BC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
+    <workbookView xWindow="2580" yWindow="2655" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>_itemName</t>
-  </si>
-  <si>
-    <t>_itemExplanation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>나무 검</t>
   </si>
@@ -94,16 +85,6 @@
     <t>퀘스트 아이템</t>
   </si>
   <si>
-    <t>_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_dropPrefabPath</t>
-  </si>
-  <si>
-    <t>_iconPath</t>
-  </si>
-  <si>
     <t>Prefabs/Entities/DropItem/0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,53 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_maxCount</t>
-  </si>
-  <si>
-    <t>_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_stamina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_isStat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_craftingPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_craftingID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_isCrafting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 검의 레시피</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,18 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_availableCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_materials_string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_materials_count_string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite/Icon/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,6 +162,86 @@
   </si>
   <si>
     <t>Sprite/Icon/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemExplanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropPrefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isCrafting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>craftingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>craftingPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materials_string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materials_count_string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>availableCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -623,31 +625,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -655,19 +657,19 @@
         <v>10010000</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -684,19 +686,19 @@
         <v>10200000</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -713,19 +715,19 @@
         <v>10001000</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -742,19 +744,19 @@
         <v>10002000</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -771,19 +773,19 @@
         <v>10000000</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -800,19 +802,19 @@
         <v>10100000</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -829,19 +831,19 @@
         <v>10300000</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>99</v>
@@ -858,19 +860,19 @@
         <v>10400000</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -887,19 +889,19 @@
         <v>10110000</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>99</v>
@@ -916,19 +918,19 @@
         <v>10110001</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>99</v>
@@ -945,19 +947,19 @@
         <v>10110002</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>99</v>
@@ -974,19 +976,19 @@
         <v>10110003</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>99</v>
@@ -1003,19 +1005,19 @@
         <v>10110004</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>99</v>
@@ -1038,7 +1040,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1049,25 +1051,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1218,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB882E2-DC2B-4364-A1E7-50F2FE65D6AC}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1234,22 +1236,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">

--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Team\EscapeIsekai\Assets\Resources\ItemData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007C6617-9F32-4508-997B-B85869D6BC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4872ED-978C-4571-B668-B33598580F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2655" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="137">
   <si>
     <t>나무 검</t>
   </si>
@@ -165,10 +165,315 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Nomal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질긴 풀입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단단한 나무입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마른 지푸라기입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단단한 돌입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상큼한 향이납니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선해 보입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 탄수화물입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고향의 치킨이 생각납니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굽지 않아도 맛있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화에 좋습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>든든한 한끼가 될겁니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가볍게 식사하기 좋습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로콜리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고소한 버터향이 납니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강에는 좋습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간식으로 먹기 좋습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Craft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP를 회복합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란색 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로 만든 검입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Nomal/Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Craft/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Gather/Wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Gather/Grass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Gather/Straw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Gather/Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Gather/Apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Gather/Tomato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Gather/Corn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Gather/banana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Food/Beef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Food/Broccoli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Food/Bread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Food/Chicken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Food/Curry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Food/Stew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Food/Soup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Nomal_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Gather_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Gather_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Gather_3</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Gather_4</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Gather_5</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Gather_6</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Gather_7</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Gather_8</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Food_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Food_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Food_4</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Food_5</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Food_6</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Food_7</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Food_8</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Nomal_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Craft_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Craft_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>itemName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,6 +503,18 @@
   </si>
   <si>
     <t>isCrafting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -606,430 +923,1282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.9140625" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="44.25" customWidth="1"/>
+    <col min="5" max="5" width="6.58203125" customWidth="1"/>
+    <col min="6" max="6" width="35.9140625" customWidth="1"/>
+    <col min="7" max="7" width="17.9140625" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3">
+        <v>99</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4">
+        <v>99</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5">
+        <v>99</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6">
+        <v>99</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7">
+        <v>99</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>99</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9">
+        <v>99</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10">
+        <v>99</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>3002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <v>500</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11">
+        <v>99</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>3003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12">
+        <v>99</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>3004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13">
+        <v>99</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>3006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14">
+        <v>99</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>3007</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15">
+        <v>700</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15">
+        <v>99</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>3008</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16">
+        <v>500</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16">
+        <v>99</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>3009</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17">
+        <v>600</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17">
+        <v>99</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>4101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>6001</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19">
+        <v>500</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19">
+        <v>99</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>6002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20">
+        <v>500</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20">
+        <v>99</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>10000000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>10001000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>10002000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24">
         <v>10010000</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F24" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G24" t="s">
         <v>18</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>10100000</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25">
+        <v>99</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>10110000</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26">
+        <v>99</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>10110001</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27">
+        <v>99</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>10110002</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28">
+        <v>99</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>10110003</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29">
+        <v>99</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>10110004</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30">
+        <v>99</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31">
         <v>10200000</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D31" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F31" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G31" t="s">
         <v>17</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10001000</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>10300000</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10002000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>99</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>10400000</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>10000000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>10100000</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7">
-        <v>99</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>10300000</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G33" t="s">
         <v>30</v>
       </c>
-      <c r="G8">
-        <v>99</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>10400000</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10110000</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10">
-        <v>99</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10110001</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11">
-        <v>99</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10110002</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12">
-        <v>99</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>10110003</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13">
-        <v>99</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>10110004</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14">
-        <v>99</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L33">
+    <sortCondition ref="A33"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1043,36 +2212,36 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>10010000</v>
       </c>
@@ -1095,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>10001000</v>
       </c>
@@ -1118,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>10002000</v>
       </c>
@@ -1141,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>10000000</v>
       </c>
@@ -1164,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>10100000</v>
       </c>
@@ -1187,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>10400000</v>
       </c>
@@ -1221,40 +2390,40 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>10110000</v>
       </c>
@@ -1274,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>10110001</v>
       </c>
@@ -1294,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>10110002</v>
       </c>
@@ -1314,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>10110003</v>
       </c>
@@ -1334,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>10110004</v>
       </c>

--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4872ED-978C-4571-B668-B33598580F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9460409-FC1D-458D-9228-B88FFAACDE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="138">
   <si>
     <t>나무 검</t>
   </si>
@@ -422,143 +422,148 @@
     <t>Sprite/Icon/Gather_5</t>
   </si>
   <si>
+    <t>Sprite/Icon/Gather_7</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Gather_8</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Food_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Food_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Food_4</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Food_5</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Food_6</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Food_7</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Food_8</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Nomal_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Craft_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Craft_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemExplanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropPrefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isCrafting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>craftingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>craftingPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materials_string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materials_count_string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>availableCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Sprite/Icon/Gather_6</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Gather_7</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Gather_8</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Food_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Icon/Food_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Icon/Food_4</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Food_5</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Food_6</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Food_7</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Food_8</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Nomal_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Icon/Craft_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Icon/Craft_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemExplanation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dropPrefabPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iconPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isStat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isCrafting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isSale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stamina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>craftingID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>craftingPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>materials_string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>materials_count_string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>availableCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -925,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -943,40 +948,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>118</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>119</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>121</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>123</v>
-      </c>
-      <c r="L1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -1227,7 +1232,7 @@
         <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H8">
         <v>99</v>
@@ -1265,7 +1270,7 @@
         <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>99</v>
@@ -1303,7 +1308,7 @@
         <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H10">
         <v>99</v>
@@ -1341,7 +1346,7 @@
         <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H11">
         <v>99</v>
@@ -1379,7 +1384,7 @@
         <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12">
         <v>99</v>
@@ -1417,7 +1422,7 @@
         <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13">
         <v>99</v>
@@ -1455,7 +1460,7 @@
         <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H14">
         <v>99</v>
@@ -1493,7 +1498,7 @@
         <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H15">
         <v>99</v>
@@ -1531,7 +1536,7 @@
         <v>92</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H16">
         <v>99</v>
@@ -1569,7 +1574,7 @@
         <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17">
         <v>99</v>
@@ -1607,7 +1612,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1616,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -1645,7 +1650,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H19">
         <v>99</v>
@@ -1654,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -1683,7 +1688,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H20">
         <v>99</v>
@@ -1692,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -2206,42 +2211,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046DC669-D6D6-48C0-9A46-A8FD3A6BBB2C}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>129</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>130</v>
       </c>
-      <c r="G1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>10010000</v>
       </c>
@@ -2263,8 +2271,11 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>10001000</v>
       </c>
@@ -2286,8 +2297,11 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>10002000</v>
       </c>
@@ -2309,8 +2323,11 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>10000000</v>
       </c>
@@ -2332,8 +2349,11 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>10100000</v>
       </c>
@@ -2355,8 +2375,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>10400000</v>
       </c>
@@ -2376,6 +2399,347 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>3002</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>3003</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>3004</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>3006</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>3007</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>3008</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>3009</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>4101</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>6001</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
     </row>
@@ -2389,7 +2753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB882E2-DC2B-4364-A1E7-50F2FE65D6AC}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2405,22 +2769,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>135</v>
-      </c>
-      <c r="F1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">

--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9460409-FC1D-458D-9228-B88FFAACDE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DD928C-3B34-4AF6-A3FA-05E66B8E3784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="173">
   <si>
     <t>나무 검</t>
   </si>
@@ -317,14 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>포션 레시피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션을 제작할 수 있습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무로 만든 검입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,10 +499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,6 +552,153 @@
   </si>
   <si>
     <t>hunger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로 된 방배입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Nomal_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주 튼튼합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다루기에 큰 힘이 필요합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가볍게 많이 휘두를 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닿으면 많이 아플겁니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Nomal_4</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Nomal_5</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Nomal_6</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Nomal_7</t>
+  </si>
+  <si>
+    <t>유물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것을 모아 현실로 돌아갑시다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Nomal_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 포션을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란포션 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란 포션을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 포션 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이크 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로콜리 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭다리 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카레 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이크를 요리할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로콜리를 요리할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭다리를 요리할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카레를 요리할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프를 요리할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽을 요리할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵을 요리할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Nomal_1</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Nomal_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -946,65 +1081,62 @@
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>116</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>120</v>
       </c>
-      <c r="J1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>1001</v>
+        <v>16001</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1018,11 +1150,8 @@
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -1039,10 +1168,10 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H3">
         <v>99</v>
@@ -1056,11 +1185,8 @@
       <c r="K3" t="b">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -1077,10 +1203,10 @@
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H4">
         <v>99</v>
@@ -1094,11 +1220,8 @@
       <c r="K4" t="b">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -1115,10 +1238,10 @@
         <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5">
         <v>99</v>
@@ -1132,11 +1255,8 @@
       <c r="K5" t="b">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -1153,10 +1273,10 @@
         <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H6">
         <v>99</v>
@@ -1170,11 +1290,8 @@
       <c r="K6" t="b">
         <v>1</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -1191,10 +1308,10 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H7">
         <v>99</v>
@@ -1208,11 +1325,8 @@
       <c r="K7" t="b">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -1229,10 +1343,10 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H8">
         <v>99</v>
@@ -1246,11 +1360,8 @@
       <c r="K8" t="b">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -1267,10 +1378,10 @@
         <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H9">
         <v>99</v>
@@ -1284,11 +1395,8 @@
       <c r="K9" t="b">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -1305,10 +1413,10 @@
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H10">
         <v>99</v>
@@ -1322,11 +1430,8 @@
       <c r="K10" t="b">
         <v>1</v>
       </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3002</v>
       </c>
@@ -1343,10 +1448,10 @@
         <v>500</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>99</v>
@@ -1360,11 +1465,8 @@
       <c r="K11" t="b">
         <v>1</v>
       </c>
-      <c r="L11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>3003</v>
       </c>
@@ -1381,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H12">
         <v>99</v>
@@ -1398,11 +1500,8 @@
       <c r="K12" t="b">
         <v>1</v>
       </c>
-      <c r="L12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3004</v>
       </c>
@@ -1419,10 +1518,10 @@
         <v>200</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H13">
         <v>99</v>
@@ -1436,11 +1535,8 @@
       <c r="K13" t="b">
         <v>1</v>
       </c>
-      <c r="L13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>3006</v>
       </c>
@@ -1448,7 +1544,7 @@
         <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -1457,10 +1553,10 @@
         <v>300</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H14">
         <v>99</v>
@@ -1474,11 +1570,8 @@
       <c r="K14" t="b">
         <v>1</v>
       </c>
-      <c r="L14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>3007</v>
       </c>
@@ -1495,10 +1588,10 @@
         <v>700</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H15">
         <v>99</v>
@@ -1512,11 +1605,8 @@
       <c r="K15" t="b">
         <v>1</v>
       </c>
-      <c r="L15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>3008</v>
       </c>
@@ -1533,10 +1623,10 @@
         <v>500</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H16">
         <v>99</v>
@@ -1550,11 +1640,8 @@
       <c r="K16" t="b">
         <v>1</v>
       </c>
-      <c r="L16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>3009</v>
       </c>
@@ -1571,10 +1658,10 @@
         <v>600</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H17">
         <v>99</v>
@@ -1588,11 +1675,8 @@
       <c r="K17" t="b">
         <v>1</v>
       </c>
-      <c r="L17">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>4101</v>
       </c>
@@ -1603,16 +1687,16 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18">
         <v>1000</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1626,34 +1710,28 @@
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>6001</v>
+        <v>4102</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="E19">
-        <v>500</v>
-      </c>
-      <c r="F19" t="s">
-        <v>78</v>
+        <v>3000</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="H19">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1664,402 +1742,357 @@
       <c r="K19" t="b">
         <v>1</v>
       </c>
-      <c r="L19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>6002</v>
+        <v>4103</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
       </c>
       <c r="C20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20">
+        <v>4000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>4104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21">
+        <v>5000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>4201</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22">
+        <v>1000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>4202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23">
+        <v>2000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>6001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24">
+        <v>500</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24">
+        <v>99</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>6002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
         <v>70</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D25" t="s">
         <v>71</v>
       </c>
-      <c r="E20">
+      <c r="E25">
         <v>500</v>
       </c>
-      <c r="F20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20">
-        <v>99</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>10000000</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>10001000</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>10002000</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>10010000</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>10100000</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="H25">
         <v>99</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>10110000</v>
+        <v>10000000</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H26">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>10110001</v>
+        <v>10001000</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>10110002</v>
+        <v>10002000</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>10110003</v>
+        <v>10010000</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H29">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>10110004</v>
+        <v>10100000</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2068,48 +2101,45 @@
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>99</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>10200000</v>
+        <v>10110000</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -2120,31 +2150,28 @@
       <c r="K31" t="b">
         <v>1</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>10300000</v>
+        <v>10110001</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E32">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>99</v>
@@ -2158,22 +2185,19 @@
       <c r="K32" t="b">
         <v>1</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>10400000</v>
+        <v>10110002</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2182,27 +2206,523 @@
         <v>15</v>
       </c>
       <c r="G33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33">
+        <v>99</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>10110003</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34">
+        <v>99</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>10110004</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35">
+        <v>99</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>10200000</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>10300000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
         <v>30</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
+      <c r="H37">
+        <v>99</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>10400000</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>5000</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>16002</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>13002</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s">
+        <v>172</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>13003</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>13004</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>13005</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>13006</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" t="s">
+        <v>171</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>13007</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" t="s">
+        <v>171</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>13008</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" t="s">
+        <v>171</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>1401</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L33">
-    <sortCondition ref="A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K38">
+    <sortCondition ref="A2:A38"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2211,10 +2731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046DC669-D6D6-48C0-9A46-A8FD3A6BBB2C}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2225,28 +2745,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" t="s">
-        <v>130</v>
-      </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2740,6 +3260,136 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>4201</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>4202</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>80</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>4102</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>4103</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>70</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>4104</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>0</v>
       </c>
     </row>
@@ -2769,22 +3419,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" t="s">
         <v>131</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>132</v>
-      </c>
-      <c r="D1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">

--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DD928C-3B34-4AF6-A3FA-05E66B8E3784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC2D458-59DB-405D-851B-CEBBA12CAEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
+    <workbookView xWindow="-30828" yWindow="11736" windowWidth="30936" windowHeight="18696" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="210">
   <si>
     <t>나무 검</t>
   </si>
@@ -329,10 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Entities/Items/Craft/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Entities/Items/Gather/Wood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,9 +427,6 @@
     <t>Sprite/Icon/Food_4</t>
   </si>
   <si>
-    <t>Sprite/Icon/Food_5</t>
-  </si>
-  <si>
     <t>Sprite/Icon/Food_6</t>
   </si>
   <si>
@@ -699,6 +692,159 @@
   </si>
   <si>
     <t>Sprite/Icon/Nomal_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무검을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅의 검을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛의 검을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불의 검을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무방패을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철방패을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Nomal_2</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Nomal_3</t>
+  </si>
+  <si>
+    <t>나무검 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅의 검 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛의 검 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불의 검 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무방패 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철방패 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Nomal/relic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Nomal/GroundSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Nomal/LightSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Food_9</t>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Nomal/FireSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Nomal/WoodShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Nomal/IornShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202001, 10202002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202001, 10202004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202004, 10202003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202001, 10202003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202004, 10004201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202006, 10202008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202005, 10202007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202006, 10202007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10303009, 10303006, 10202006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/RedBottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/BlueBottle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O9:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1083,63 +1229,63 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>115</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>116</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>117</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>118</v>
-      </c>
-      <c r="J1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>16001</v>
+        <v>10202001</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>92</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -1148,24 +1294,24 @@
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>2001</v>
+        <v>10202002</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>77</v>
@@ -1188,19 +1334,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>2002</v>
+        <v>10202003</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
@@ -1223,19 +1369,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>2003</v>
+        <v>10202004</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
         <v>79</v>
@@ -1258,19 +1404,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>2004</v>
+        <v>10202005</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>80</v>
@@ -1282,7 +1428,7 @@
         <v>99</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -1293,25 +1439,25 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>2005</v>
+        <v>10202006</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="H7">
         <v>99</v>
@@ -1328,25 +1474,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>2006</v>
+        <v>10202007</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
         <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="H8">
         <v>99</v>
@@ -1363,19 +1509,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>2007</v>
+        <v>10202008</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
         <v>83</v>
@@ -1398,19 +1544,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>2008</v>
+        <v>10303002</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -1425,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -1433,19 +1579,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>3002</v>
+        <v>10303003</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E11">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F11" t="s">
         <v>85</v>
@@ -1460,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1468,19 +1614,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>3003</v>
+        <v>10303004</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F12" t="s">
         <v>86</v>
@@ -1495,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -1503,19 +1649,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>3004</v>
+        <v>10303006</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E13">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F13" t="s">
         <v>87</v>
@@ -1530,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -1538,19 +1684,19 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>3006</v>
+        <v>10303007</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E14">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>
@@ -1565,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -1573,19 +1719,19 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>3007</v>
+        <v>10303008</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
@@ -1600,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1608,25 +1754,25 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>3008</v>
+        <v>10303009</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F16" t="s">
         <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="H16">
         <v>99</v>
@@ -1635,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -1643,60 +1789,60 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>3009</v>
+        <v>10004101</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E17">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H17">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>4101</v>
+        <v>10004102</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="E18">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1705,30 +1851,33 @@
         <v>1</v>
       </c>
       <c r="J18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>4102</v>
+        <v>10004103</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19">
-        <v>3000</v>
+        <v>1500</v>
+      </c>
+      <c r="F19" t="s">
+        <v>194</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1737,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -1745,22 +1894,25 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>4103</v>
+        <v>10004104</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20">
-        <v>4000</v>
+        <v>2500</v>
+      </c>
+      <c r="F20" t="s">
+        <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1769,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -1777,22 +1929,25 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>4104</v>
+        <v>10004201</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E21">
-        <v>5000</v>
+        <v>800</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1801,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -1809,22 +1964,25 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>4201</v>
+        <v>10004202</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E22">
-        <v>1000</v>
+        <v>2000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1833,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -1841,39 +1999,42 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>4202</v>
+        <v>5000</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E23">
-        <v>2000</v>
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>192</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>6001</v>
+        <v>10106001</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -1888,10 +2049,10 @@
         <v>500</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H24">
         <v>99</v>
@@ -1900,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1908,7 +2069,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>6002</v>
+        <v>10106002</v>
       </c>
       <c r="B25" t="s">
         <v>67</v>
@@ -1923,10 +2084,10 @@
         <v>500</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H25">
         <v>99</v>
@@ -1935,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -1943,31 +2104,31 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>10000000</v>
+        <v>10113002</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -1978,31 +2139,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>10001000</v>
+        <v>10113003</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -2013,31 +2174,31 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>10002000</v>
+        <v>10113004</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -2048,31 +2209,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>10010000</v>
+        <v>10113005</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -2083,31 +2244,31 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>10100000</v>
+        <v>10113006</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="H30">
         <v>99</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -2118,25 +2279,25 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>10110000</v>
+        <v>10113007</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="H31">
         <v>99</v>
@@ -2145,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -2153,25 +2314,25 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>10110001</v>
+        <v>10113008</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="H32">
         <v>99</v>
@@ -2180,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -2188,25 +2349,25 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>10110002</v>
+        <v>10114101</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="H33">
         <v>99</v>
@@ -2215,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -2223,25 +2384,25 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>10110003</v>
+        <v>10114102</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="H34">
         <v>99</v>
@@ -2250,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -2258,25 +2419,25 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>10110004</v>
+        <v>10114103</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="H35">
         <v>99</v>
@@ -2285,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
@@ -2293,34 +2454,34 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>10200000</v>
+        <v>10114104</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
       <c r="J36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -2328,25 +2489,25 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>10300000</v>
+        <v>10114201</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="E37">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="H37">
         <v>99</v>
@@ -2355,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -2363,34 +2524,34 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>10400000</v>
+        <v>10114202</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -2398,60 +2559,63 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>5000</v>
+        <v>10116001</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
         <v>151</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>75</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
       </c>
       <c r="J39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>16002</v>
+        <v>10116002</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>75</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -2460,269 +2624,467 @@
         <v>1</v>
       </c>
       <c r="K40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>13002</v>
+        <v>10000000</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="b">
         <v>1</v>
       </c>
       <c r="K41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>13003</v>
+        <v>10001000</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
       </c>
       <c r="K42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>13004</v>
+        <v>10002000</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
       </c>
       <c r="K43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>13005</v>
+        <v>10010000</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>13006</v>
+        <v>10100000</v>
       </c>
       <c r="B45" t="s">
         <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
       </c>
       <c r="K45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>13007</v>
+        <v>10110000</v>
       </c>
       <c r="B46" t="s">
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>24</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
       </c>
       <c r="J46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>13008</v>
+        <v>10110001</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>25</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
       </c>
       <c r="J47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>1401</v>
+        <v>10110002</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48">
+        <v>99</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>10110003</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
       <c r="C49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49">
+        <v>99</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>10110004</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
       <c r="C50" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50">
+        <v>99</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>10200000</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
       <c r="C51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>10300000</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
       <c r="C52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52">
+        <v>99</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>10400000</v>
+      </c>
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K38">
-    <sortCondition ref="A2:A38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K53">
+    <sortCondition ref="A2:A53"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2734,7 +3096,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2745,28 +3107,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" t="s">
-        <v>127</v>
-      </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -3034,7 +3396,7 @@
         <v>3002</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3052,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -3112,7 +3474,7 @@
         <v>3006</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3130,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -3138,7 +3500,7 @@
         <v>3007</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3156,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -3182,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -3208,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -3401,10 +3763,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB882E2-DC2B-4364-A1E7-50F2FE65D6AC}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3412,29 +3774,29 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.4140625" customWidth="1"/>
     <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
         <v>128</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>129</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>130</v>
-      </c>
-      <c r="E1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3537,8 +3899,271 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>10114101</v>
+      </c>
+      <c r="B7">
+        <v>10004101</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10202001</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>10114102</v>
+      </c>
+      <c r="B8">
+        <v>10004102</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>10114103</v>
+      </c>
+      <c r="B9">
+        <v>10004103</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>10114104</v>
+      </c>
+      <c r="B10">
+        <v>10004104</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10114201</v>
+      </c>
+      <c r="B11">
+        <v>10004201</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>10114202</v>
+      </c>
+      <c r="B12">
+        <v>10004202</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>10113002</v>
+      </c>
+      <c r="B13">
+        <v>10303002</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>10303006</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>10113003</v>
+      </c>
+      <c r="B14">
+        <v>10303003</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>10202005</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>10113004</v>
+      </c>
+      <c r="B15">
+        <v>10303004</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>10202007</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>10113006</v>
+      </c>
+      <c r="B16">
+        <v>10303006</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>10113007</v>
+      </c>
+      <c r="B17">
+        <v>10303007</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>10113008</v>
+      </c>
+      <c r="B18">
+        <v>10303008</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>10113009</v>
+      </c>
+      <c r="B19">
+        <v>10303009</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E17" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC2D458-59DB-405D-851B-CEBBA12CAEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9112F8EB-F69B-416E-82DD-11913CDD51F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="11736" windowWidth="30936" windowHeight="18696" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -38,50 +38,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="210">
-  <si>
-    <t>나무 검</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="212">
   <si>
     <t>나무로 만든 검입니다.</t>
   </si>
   <si>
-    <t>허름한 가죽</t>
-  </si>
-  <si>
     <t>재료가 될 허름한 가죽입니다.</t>
   </si>
   <si>
-    <t>허름한 가죽 상의</t>
-  </si>
-  <si>
     <t>허름한 가죽으로 만든 상의입니다.</t>
   </si>
   <si>
-    <t>허름한 가죽 하의</t>
-  </si>
-  <si>
     <t>허름한 가죽으로 만든 하의입니다.</t>
   </si>
   <si>
-    <t>허름한 가죽 모자</t>
-  </si>
-  <si>
     <t>허름한 가죽으로 만든 모자입니다.</t>
   </si>
   <si>
     <t>기타기타기타</t>
   </si>
   <si>
-    <t>테스트용 포션</t>
-  </si>
-  <si>
     <t>포션</t>
   </si>
   <si>
-    <t>테스트용 퀘스트 아이템</t>
-  </si>
-  <si>
     <t>퀘스트 아이템</t>
   </si>
   <si>
@@ -101,26 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나무 검의 레시피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허름한 가죽 상의의 레시피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허름한 가죽 하의의 레시피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허름한 가죽 모자의 레시피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트용 포션의 레시피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 검의 제작 방법이 적힌 종이입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파란색 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Entities/Items/Nomal/Scroll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Entities/Items/Gather/Wood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/Icon/Nomal_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite/Icon/Gather_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,10 +383,6 @@
     <t>Sprite/Icon/Food_8</t>
   </si>
   <si>
-    <t>Sprite/Icon/Nomal_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite/Icon/Craft_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -556,10 +499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/Icon/Nomal_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>철방패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -592,18 +531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/Icon/Nomal_4</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Nomal_5</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Nomal_6</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Nomal_7</t>
-  </si>
-  <si>
     <t>유물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,10 +539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/Icon/Nomal_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>빨간 포션을 제작할 수 있습니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -688,13 +611,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/Icon/Nomal_1</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Nomal_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무검을 제작할 수 있습니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,12 +635,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/Icon/Nomal_2</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Nomal_3</t>
-  </si>
-  <si>
     <t>나무검 레시피</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,33 +687,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Entities/Items/Nomal/relic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Entities/Items/Nomal/GroundSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Entities/Items/Nomal/LightSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite/Icon/Food_9</t>
   </si>
   <si>
-    <t>Prefabs/Entities/Items/Nomal/FireSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Entities/Items/Nomal/WoodShield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Entities/Items/Nomal/IornShield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10202001, 10202002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -820,10 +706,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10202004, 10004201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10202006, 10202008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -836,15 +718,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10303009, 10303006, 10202006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Entities/Items/Normal/RedBottle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Prefabs/Entities/Items/Normal/BlueBottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 검T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용 포션T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 검의 레시피T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허름한 가죽 상의의 레시피T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허름한 가죽 하의의 레시피T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허름한 가죽 모자의 레시피T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용 포션의 레시피T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허름한 가죽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타기타기타T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용 퀘스트 아이템T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202004, 10021000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10309000, 10306000, 10202006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/relic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/IornShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/WoodShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/FireSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/LightSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/GroundSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_1</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허름한 가죽 모자T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허름한 가죽 상의T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허름한 가죽 하의T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202006, 10202002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202008, 10202002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태미나를 회복합니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1211,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O9:O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1223,43 +1244,43 @@
     <col min="4" max="4" width="44.25" customWidth="1"/>
     <col min="5" max="5" width="6.58203125" customWidth="1"/>
     <col min="6" max="6" width="35.9140625" customWidth="1"/>
-    <col min="7" max="7" width="17.9140625" customWidth="1"/>
+    <col min="7" max="7" width="19.4140625" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="K1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -1267,22 +1288,22 @@
         <v>10202001</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>99</v>
@@ -1302,22 +1323,22 @@
         <v>10202002</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H3">
         <v>99</v>
@@ -1337,22 +1358,22 @@
         <v>10202003</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H4">
         <v>99</v>
@@ -1372,22 +1393,22 @@
         <v>10202004</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>99</v>
@@ -1407,22 +1428,22 @@
         <v>10202005</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H6">
         <v>99</v>
@@ -1442,22 +1463,22 @@
         <v>10202006</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="H7">
         <v>99</v>
@@ -1477,22 +1498,22 @@
         <v>10202007</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>150</v>
       </c>
       <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
         <v>82</v>
-      </c>
-      <c r="G8" t="s">
-        <v>97</v>
       </c>
       <c r="H8">
         <v>99</v>
@@ -1512,22 +1533,22 @@
         <v>10202008</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>100</v>
       </c>
       <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
         <v>83</v>
-      </c>
-      <c r="G9" t="s">
-        <v>98</v>
       </c>
       <c r="H9">
         <v>99</v>
@@ -1544,25 +1565,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>10303002</v>
+        <v>10302000</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>1500</v>
       </c>
       <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
         <v>84</v>
-      </c>
-      <c r="G10" t="s">
-        <v>99</v>
       </c>
       <c r="H10">
         <v>99</v>
@@ -1579,25 +1600,25 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>10303003</v>
+        <v>10303000</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>200</v>
       </c>
       <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
         <v>85</v>
-      </c>
-      <c r="G11" t="s">
-        <v>100</v>
       </c>
       <c r="H11">
         <v>99</v>
@@ -1614,25 +1635,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>10303004</v>
+        <v>10304000</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>500</v>
       </c>
       <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
         <v>86</v>
-      </c>
-      <c r="G12" t="s">
-        <v>101</v>
       </c>
       <c r="H12">
         <v>99</v>
@@ -1649,25 +1670,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>10303006</v>
+        <v>10306000</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>600</v>
       </c>
       <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" t="s">
-        <v>102</v>
       </c>
       <c r="H13">
         <v>99</v>
@@ -1684,25 +1705,25 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>10303007</v>
+        <v>10307000</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>3500</v>
       </c>
       <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" t="s">
-        <v>103</v>
       </c>
       <c r="H14">
         <v>99</v>
@@ -1719,25 +1740,25 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>10303008</v>
+        <v>10308000</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>800</v>
       </c>
       <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
         <v>89</v>
-      </c>
-      <c r="G15" t="s">
-        <v>104</v>
       </c>
       <c r="H15">
         <v>99</v>
@@ -1754,25 +1775,25 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>10303009</v>
+        <v>10309000</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>1000</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="H16">
         <v>99</v>
@@ -1789,25 +1810,25 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>10004101</v>
+        <v>10011000</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>500</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1819,30 +1840,30 @@
         <v>1</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>10004102</v>
+        <v>10012000</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E18">
         <v>800</v>
       </c>
       <c r="F18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G18" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1859,25 +1880,25 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>10004103</v>
+        <v>10013000</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E19">
         <v>1500</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1894,25 +1915,25 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>10004104</v>
+        <v>10014000</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E20">
         <v>2500</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1929,25 +1950,25 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>10004201</v>
+        <v>10021000</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E21">
         <v>800</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1964,25 +1985,25 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>10004202</v>
+        <v>10022000</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E22">
         <v>2000</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2002,22 +2023,22 @@
         <v>5000</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G23" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -2034,25 +2055,25 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>10106001</v>
+        <v>10161000</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E24">
         <v>500</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="G24" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="H24">
         <v>99</v>
@@ -2069,25 +2090,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>10106002</v>
+        <v>10162000</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="E25">
         <v>500</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H25">
         <v>99</v>
@@ -2107,22 +2128,22 @@
         <v>10113002</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="H26">
         <v>99</v>
@@ -2142,22 +2163,22 @@
         <v>10113003</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="H27">
         <v>99</v>
@@ -2177,22 +2198,22 @@
         <v>10113004</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="H28">
         <v>99</v>
@@ -2212,22 +2233,22 @@
         <v>10113005</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="H29">
         <v>99</v>
@@ -2247,22 +2268,22 @@
         <v>10113006</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G30" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="H30">
         <v>99</v>
@@ -2282,22 +2303,22 @@
         <v>10113007</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G31" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="H31">
         <v>99</v>
@@ -2317,22 +2338,22 @@
         <v>10113008</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G32" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="H32">
         <v>99</v>
@@ -2352,22 +2373,22 @@
         <v>10114101</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G33" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="H33">
         <v>99</v>
@@ -2387,22 +2408,22 @@
         <v>10114102</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G34" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="H34">
         <v>99</v>
@@ -2422,22 +2443,22 @@
         <v>10114103</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G35" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="H35">
         <v>99</v>
@@ -2457,22 +2478,22 @@
         <v>10114104</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G36" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="H36">
         <v>99</v>
@@ -2492,22 +2513,22 @@
         <v>10114201</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="D37" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G37" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="H37">
         <v>99</v>
@@ -2527,22 +2548,22 @@
         <v>10114202</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G38" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="H38">
         <v>99</v>
@@ -2562,22 +2583,22 @@
         <v>10116001</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="H39">
         <v>99</v>
@@ -2597,22 +2618,22 @@
         <v>10116002</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G40" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="H40">
         <v>99</v>
@@ -2632,22 +2653,22 @@
         <v>10000000</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -2667,22 +2688,22 @@
         <v>10001000</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2702,22 +2723,22 @@
         <v>10002000</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -2737,22 +2758,22 @@
         <v>10010000</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -2772,22 +2793,22 @@
         <v>10100000</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H45">
         <v>99</v>
@@ -2807,22 +2828,22 @@
         <v>10110000</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H46">
         <v>99</v>
@@ -2842,22 +2863,22 @@
         <v>10110001</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H47">
         <v>99</v>
@@ -2877,22 +2898,22 @@
         <v>10110002</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
         <v>21</v>
-      </c>
-      <c r="D48" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>33</v>
       </c>
       <c r="H48">
         <v>99</v>
@@ -2912,22 +2933,22 @@
         <v>10110003</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H49">
         <v>99</v>
@@ -2947,22 +2968,22 @@
         <v>10110004</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H50">
         <v>99</v>
@@ -2982,22 +3003,22 @@
         <v>10200000</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -3017,22 +3038,22 @@
         <v>10300000</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E52">
         <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H52">
         <v>99</v>
@@ -3052,22 +3073,22 @@
         <v>10400000</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -3093,59 +3114,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046DC669-D6D6-48C0-9A46-A8FD3A6BBB2C}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>10010000</v>
+        <v>10000000</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3211,19 +3233,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>10000000</v>
+        <v>10010000</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3237,16 +3259,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>10100000</v>
+        <v>10011000</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3263,19 +3285,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>10400000</v>
+        <v>10012000</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3289,7 +3311,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>2005</v>
+        <v>10013000</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3298,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3310,12 +3332,12 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>2006</v>
+        <v>10014000</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3324,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3336,12 +3358,12 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>2007</v>
+        <v>10021000</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3353,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3362,12 +3384,12 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>2008</v>
+        <v>10022000</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3379,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3388,15 +3410,15 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>3002</v>
+        <v>10100000</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3414,15 +3436,15 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>3003</v>
+        <v>10161000</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3440,12 +3462,12 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>3004</v>
+        <v>10162000</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3463,18 +3485,18 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>3006</v>
+        <v>10202005</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3492,15 +3514,15 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>3007</v>
+        <v>10202006</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3518,12 +3540,12 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>3008</v>
+        <v>10202007</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3544,12 +3566,12 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>3009</v>
+        <v>10202008</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3570,21 +3592,21 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>4101</v>
+        <v>10302000</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3596,15 +3618,15 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>6001</v>
+        <v>10303000</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3622,12 +3644,12 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>4201</v>
+        <v>10304000</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3639,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3648,15 +3670,15 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>4202</v>
+        <v>10306000</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3665,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3674,21 +3696,21 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>4102</v>
+        <v>10307000</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3700,12 +3722,12 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>4103</v>
+        <v>10308000</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3714,24 +3736,24 @@
         <v>0</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>70</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>4104</v>
+        <v>10309000</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3740,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3752,10 +3774,39 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>10400000</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
+    <sortCondition ref="A2:A26"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3763,10 +3814,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB882E2-DC2B-4364-A1E7-50F2FE65D6AC}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3781,22 +3832,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3904,7 +3955,7 @@
         <v>10114101</v>
       </c>
       <c r="B7">
-        <v>10004101</v>
+        <v>10011000</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -3924,16 +3975,16 @@
         <v>10114102</v>
       </c>
       <c r="B8">
-        <v>10004102</v>
+        <v>10012000</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3944,16 +3995,16 @@
         <v>10114103</v>
       </c>
       <c r="B9">
-        <v>10004103</v>
+        <v>10013000</v>
       </c>
       <c r="C9">
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3964,16 +4015,16 @@
         <v>10114104</v>
       </c>
       <c r="B10">
-        <v>10004104</v>
+        <v>10014000</v>
       </c>
       <c r="C10">
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3984,16 +4035,16 @@
         <v>10114201</v>
       </c>
       <c r="B11">
-        <v>10004201</v>
+        <v>10021000</v>
       </c>
       <c r="C11">
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4004,16 +4055,16 @@
         <v>10114202</v>
       </c>
       <c r="B12">
-        <v>10004202</v>
+        <v>10022000</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4024,13 +4075,13 @@
         <v>10113002</v>
       </c>
       <c r="B13">
-        <v>10303002</v>
+        <v>10302000</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13">
-        <v>10303006</v>
+        <v>10306000</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -4044,7 +4095,7 @@
         <v>10113003</v>
       </c>
       <c r="B14">
-        <v>10303003</v>
+        <v>10303000</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -4064,7 +4115,7 @@
         <v>10113004</v>
       </c>
       <c r="B15">
-        <v>10303004</v>
+        <v>10304000</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -4084,16 +4135,16 @@
         <v>10113006</v>
       </c>
       <c r="B16">
-        <v>10303006</v>
+        <v>10306000</v>
       </c>
       <c r="C16">
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -4104,16 +4155,16 @@
         <v>10113007</v>
       </c>
       <c r="B17">
-        <v>10303007</v>
+        <v>10307000</v>
       </c>
       <c r="C17">
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -4124,16 +4175,16 @@
         <v>10113008</v>
       </c>
       <c r="B18">
-        <v>10303008</v>
+        <v>10308000</v>
       </c>
       <c r="C18">
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -4144,18 +4195,58 @@
         <v>10113009</v>
       </c>
       <c r="B19">
-        <v>10303009</v>
+        <v>10309000</v>
       </c>
       <c r="C19">
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E19" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>10116001</v>
+      </c>
+      <c r="B20">
+        <v>10161000</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>10116002</v>
+      </c>
+      <c r="B21">
+        <v>10162000</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DD928C-3B34-4AF6-A3FA-05E66B8E3784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9112F8EB-F69B-416E-82DD-11913CDD51F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -38,50 +38,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="173">
-  <si>
-    <t>나무 검</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="212">
   <si>
     <t>나무로 만든 검입니다.</t>
   </si>
   <si>
-    <t>허름한 가죽</t>
-  </si>
-  <si>
     <t>재료가 될 허름한 가죽입니다.</t>
   </si>
   <si>
-    <t>허름한 가죽 상의</t>
-  </si>
-  <si>
     <t>허름한 가죽으로 만든 상의입니다.</t>
   </si>
   <si>
-    <t>허름한 가죽 하의</t>
-  </si>
-  <si>
     <t>허름한 가죽으로 만든 하의입니다.</t>
   </si>
   <si>
-    <t>허름한 가죽 모자</t>
-  </si>
-  <si>
     <t>허름한 가죽으로 만든 모자입니다.</t>
   </si>
   <si>
     <t>기타기타기타</t>
   </si>
   <si>
-    <t>테스트용 포션</t>
-  </si>
-  <si>
     <t>포션</t>
   </si>
   <si>
-    <t>테스트용 퀘스트 아이템</t>
-  </si>
-  <si>
     <t>퀘스트 아이템</t>
   </si>
   <si>
@@ -101,26 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나무 검의 레시피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허름한 가죽 상의의 레시피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허름한 가죽 하의의 레시피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허름한 가죽 모자의 레시피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트용 포션의 레시피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 검의 제작 방법이 적힌 종이입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파란색 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,14 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Entities/Items/Nomal/Scroll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Entities/Items/Craft/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Entities/Items/Gather/Wood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/Icon/Nomal_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite/Icon/Gather_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,9 +374,6 @@
     <t>Sprite/Icon/Food_4</t>
   </si>
   <si>
-    <t>Sprite/Icon/Food_5</t>
-  </si>
-  <si>
     <t>Sprite/Icon/Food_6</t>
   </si>
   <si>
@@ -443,10 +383,6 @@
     <t>Sprite/Icon/Food_8</t>
   </si>
   <si>
-    <t>Sprite/Icon/Nomal_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite/Icon/Craft_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -563,10 +499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/Icon/Nomal_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>철방패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -599,18 +531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/Icon/Nomal_4</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Nomal_5</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Nomal_6</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Nomal_7</t>
-  </si>
-  <si>
     <t>유물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -619,10 +539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/Icon/Nomal_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>빨간 포션을 제작할 수 있습니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,10 +611,261 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/Icon/Nomal_1</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/Nomal_1</t>
+    <t>나무검을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅의 검을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛의 검을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불의 검을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무방패을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철방패을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무검 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅의 검 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛의 검 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불의 검 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무방패 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철방패 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Food_9</t>
+  </si>
+  <si>
+    <t>10202001, 10202002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202001, 10202004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202004, 10202003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202001, 10202003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202006, 10202008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202005, 10202007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202006, 10202007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/RedBottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/BlueBottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 검T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용 포션T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 검의 레시피T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허름한 가죽 상의의 레시피T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허름한 가죽 하의의 레시피T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허름한 가죽 모자의 레시피T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용 포션의 레시피T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허름한 가죽T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타기타기타T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용 퀘스트 아이템T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202004, 10021000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10309000, 10306000, 10202006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/relic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/IornShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/WoodShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/FireSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/LightSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/GroundSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_1</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허름한 가죽 모자T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허름한 가죽 상의T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허름한 가죽 하의T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202006, 10202002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202008, 10202002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태미나를 회복합니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1077,69 +1244,69 @@
     <col min="4" max="4" width="44.25" customWidth="1"/>
     <col min="5" max="5" width="6.58203125" customWidth="1"/>
     <col min="6" max="6" width="35.9140625" customWidth="1"/>
-    <col min="7" max="7" width="17.9140625" customWidth="1"/>
+    <col min="7" max="7" width="19.4140625" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="H1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="K1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>16001</v>
+        <v>10202001</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -1148,30 +1315,30 @@
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>2001</v>
+        <v>10202002</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H3">
         <v>99</v>
@@ -1188,25 +1355,25 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>2002</v>
+        <v>10202003</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H4">
         <v>99</v>
@@ -1223,25 +1390,25 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>2003</v>
+        <v>10202004</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>99</v>
@@ -1258,31 +1425,31 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>2004</v>
+        <v>10202005</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H6">
         <v>99</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -1293,25 +1460,25 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>2005</v>
+        <v>10202006</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="H7">
         <v>99</v>
@@ -1328,25 +1495,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>2006</v>
+        <v>10202007</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
         <v>82</v>
-      </c>
-      <c r="G8" t="s">
-        <v>133</v>
       </c>
       <c r="H8">
         <v>99</v>
@@ -1363,25 +1530,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>2007</v>
+        <v>10202008</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
       </c>
       <c r="E9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
         <v>83</v>
-      </c>
-      <c r="G9" t="s">
-        <v>98</v>
       </c>
       <c r="H9">
         <v>99</v>
@@ -1398,25 +1565,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>2008</v>
+        <v>10302000</v>
       </c>
       <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
       <c r="E10">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
         <v>84</v>
-      </c>
-      <c r="G10" t="s">
-        <v>99</v>
       </c>
       <c r="H10">
         <v>99</v>
@@ -1425,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -1433,25 +1600,25 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>3002</v>
+        <v>10303000</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E11">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
         <v>85</v>
-      </c>
-      <c r="G11" t="s">
-        <v>100</v>
       </c>
       <c r="H11">
         <v>99</v>
@@ -1460,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1468,25 +1635,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>3003</v>
+        <v>10304000</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
         <v>86</v>
-      </c>
-      <c r="G12" t="s">
-        <v>101</v>
       </c>
       <c r="H12">
         <v>99</v>
@@ -1495,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -1503,25 +1670,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>3004</v>
+        <v>10306000</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E13">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" t="s">
-        <v>102</v>
       </c>
       <c r="H13">
         <v>99</v>
@@ -1530,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -1538,25 +1705,25 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>3006</v>
+        <v>10307000</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14">
+        <v>3500</v>
+      </c>
+      <c r="F14" t="s">
         <v>74</v>
       </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14">
-        <v>300</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" t="s">
-        <v>103</v>
       </c>
       <c r="H14">
         <v>99</v>
@@ -1565,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -1573,25 +1740,25 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>3007</v>
+        <v>10308000</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E15">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
         <v>89</v>
-      </c>
-      <c r="G15" t="s">
-        <v>104</v>
       </c>
       <c r="H15">
         <v>99</v>
@@ -1600,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1608,25 +1775,25 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>3008</v>
+        <v>10309000</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E16">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="H16">
         <v>99</v>
@@ -1635,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -1643,34 +1810,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>3009</v>
+        <v>10011000</v>
       </c>
       <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
         <v>60</v>
       </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
       <c r="E17">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="H17">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -1678,25 +1845,25 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>4101</v>
+        <v>10012000</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="E18">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1705,30 +1872,33 @@
         <v>1</v>
       </c>
       <c r="J18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>4102</v>
+        <v>10013000</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E19">
-        <v>3000</v>
+        <v>1500</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1737,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -1745,22 +1915,25 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>4103</v>
+        <v>10014000</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E20">
-        <v>4000</v>
+        <v>2500</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1769,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -1777,22 +1950,25 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>4104</v>
+        <v>10021000</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E21">
-        <v>5000</v>
+        <v>800</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1801,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -1809,22 +1985,25 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>4201</v>
+        <v>10022000</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E22">
-        <v>1000</v>
+        <v>2000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1833,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -1841,57 +2020,60 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>4202</v>
+        <v>5000</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E23">
-        <v>2000</v>
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>6001</v>
+        <v>10161000</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E24">
         <v>500</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H24">
         <v>99</v>
@@ -1900,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1908,25 +2090,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>6002</v>
+        <v>10162000</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="E25">
         <v>500</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="H25">
         <v>99</v>
@@ -1935,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -1943,31 +2125,31 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>10000000</v>
+        <v>10113002</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -1978,31 +2160,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>10001000</v>
+        <v>10113003</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -2013,31 +2195,31 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>10002000</v>
+        <v>10113004</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -2048,31 +2230,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>10010000</v>
+        <v>10113005</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -2083,31 +2265,31 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>10100000</v>
+        <v>10113006</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="H30">
         <v>99</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -2118,25 +2300,25 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>10110000</v>
+        <v>10113007</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="H31">
         <v>99</v>
@@ -2145,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -2153,25 +2335,25 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>10110001</v>
+        <v>10113008</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="H32">
         <v>99</v>
@@ -2180,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -2188,25 +2370,25 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>10110002</v>
+        <v>10114101</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="H33">
         <v>99</v>
@@ -2215,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -2223,25 +2405,25 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>10110003</v>
+        <v>10114102</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="H34">
         <v>99</v>
@@ -2250,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -2258,25 +2440,25 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>10110004</v>
+        <v>10114103</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="H35">
         <v>99</v>
@@ -2285,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
@@ -2293,34 +2475,34 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>10200000</v>
+        <v>10114104</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
       <c r="J36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -2328,25 +2510,25 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>10300000</v>
+        <v>10114201</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="E37">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="H37">
         <v>99</v>
@@ -2355,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -2363,34 +2545,34 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>10400000</v>
+        <v>10114202</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -2398,60 +2580,63 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>5000</v>
+        <v>10116001</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>188</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
       </c>
       <c r="J39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>16002</v>
+        <v>10116002</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -2460,269 +2645,467 @@
         <v>1</v>
       </c>
       <c r="K40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>13002</v>
+        <v>10000000</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="b">
         <v>1</v>
       </c>
       <c r="K41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>13003</v>
+        <v>10001000</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
       </c>
       <c r="K42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>13004</v>
+        <v>10002000</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
       </c>
       <c r="K43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>13005</v>
+        <v>10010000</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>13006</v>
+        <v>10100000</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
       </c>
       <c r="K45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>13007</v>
+        <v>10110000</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
       </c>
       <c r="J46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>13008</v>
+        <v>10110001</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>13</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
       </c>
       <c r="J47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>1401</v>
+        <v>10110002</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.45">
+        <v>180</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48">
+        <v>99</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>10110003</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
       <c r="C49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49">
+        <v>99</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>10110004</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
       <c r="C50" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50">
+        <v>99</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>10200000</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
       <c r="C51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.45">
+        <v>183</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>10300000</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
       <c r="C52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52">
+        <v>99</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>10400000</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>185</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K38">
-    <sortCondition ref="A2:A38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K53">
+    <sortCondition ref="A2:A53"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2731,59 +3114,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046DC669-D6D6-48C0-9A46-A8FD3A6BBB2C}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>10010000</v>
+        <v>10000000</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2849,19 +3233,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>10000000</v>
+        <v>10010000</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2875,16 +3259,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>10100000</v>
+        <v>10011000</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2901,19 +3285,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>10400000</v>
+        <v>10012000</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2927,7 +3311,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>2005</v>
+        <v>10013000</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2936,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2948,12 +3332,12 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>2006</v>
+        <v>10014000</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2962,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2974,12 +3358,12 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>2007</v>
+        <v>10021000</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2991,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3000,12 +3384,12 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>2008</v>
+        <v>10022000</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3017,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3026,15 +3410,15 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>3002</v>
+        <v>10100000</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3052,15 +3436,15 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>3003</v>
+        <v>10161000</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3078,12 +3462,12 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>3004</v>
+        <v>10162000</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3101,18 +3485,18 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>3006</v>
+        <v>10202005</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3130,12 +3514,12 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>3007</v>
+        <v>10202006</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3156,12 +3540,12 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>3008</v>
+        <v>10202007</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3182,12 +3566,12 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>3009</v>
+        <v>10202008</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3208,21 +3592,21 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>4101</v>
+        <v>10302000</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3234,15 +3618,15 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>6001</v>
+        <v>10303000</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3260,12 +3644,12 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>4201</v>
+        <v>10304000</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3277,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3286,15 +3670,15 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>4202</v>
+        <v>10306000</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3303,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3312,21 +3696,21 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>4102</v>
+        <v>10307000</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3338,12 +3722,12 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>4103</v>
+        <v>10308000</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3352,24 +3736,24 @@
         <v>0</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>70</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>4104</v>
+        <v>10309000</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3378,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3390,10 +3774,39 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>10400000</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
+    <sortCondition ref="A2:A26"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3401,10 +3814,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB882E2-DC2B-4364-A1E7-50F2FE65D6AC}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3412,29 +3825,29 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.4140625" customWidth="1"/>
     <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3537,8 +3950,311 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>10114101</v>
+      </c>
+      <c r="B7">
+        <v>10011000</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10202001</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>10114102</v>
+      </c>
+      <c r="B8">
+        <v>10012000</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>10114103</v>
+      </c>
+      <c r="B9">
+        <v>10013000</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>10114104</v>
+      </c>
+      <c r="B10">
+        <v>10014000</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10114201</v>
+      </c>
+      <c r="B11">
+        <v>10021000</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>10114202</v>
+      </c>
+      <c r="B12">
+        <v>10022000</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>10113002</v>
+      </c>
+      <c r="B13">
+        <v>10302000</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>10306000</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>10113003</v>
+      </c>
+      <c r="B14">
+        <v>10303000</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>10202005</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>10113004</v>
+      </c>
+      <c r="B15">
+        <v>10304000</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>10202007</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>10113006</v>
+      </c>
+      <c r="B16">
+        <v>10306000</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>10113007</v>
+      </c>
+      <c r="B17">
+        <v>10307000</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>10113008</v>
+      </c>
+      <c r="B18">
+        <v>10308000</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>10113009</v>
+      </c>
+      <c r="B19">
+        <v>10309000</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>10116001</v>
+      </c>
+      <c r="B20">
+        <v>10161000</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>10116002</v>
+      </c>
+      <c r="B21">
+        <v>10162000</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E17" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9112F8EB-F69B-416E-82DD-11913CDD51F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE28312-0D3A-4018-9238-CACA1422DE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="219">
   <si>
     <t>나무로 만든 검입니다.</t>
   </si>
@@ -866,6 +866,34 @@
   </si>
   <si>
     <t>스태미나를 회복합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터를 정지 시킬수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴볼 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴볼을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202003, 10202004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1230,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2152,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
@@ -2187,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
@@ -2222,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
@@ -2257,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
@@ -2292,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
@@ -2327,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
@@ -2362,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
@@ -2397,10 +2425,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
@@ -2432,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
@@ -2467,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
@@ -2502,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
@@ -2537,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
@@ -2572,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
@@ -2607,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
@@ -2633,7 +2661,7 @@
         <v>188</v>
       </c>
       <c r="G40" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="H40">
         <v>99</v>
@@ -2642,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
@@ -3101,6 +3129,70 @@
       </c>
       <c r="K53" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>10163000</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" t="s">
+        <v>213</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>99</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>10116003</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" t="s">
+        <v>215</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>216</v>
+      </c>
+      <c r="G55" t="s">
+        <v>217</v>
+      </c>
+      <c r="H55">
+        <v>99</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3116,7 +3208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046DC669-D6D6-48C0-9A46-A8FD3A6BBB2C}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -3814,10 +3906,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB882E2-DC2B-4364-A1E7-50F2FE65D6AC}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4250,6 +4342,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>10116003</v>
+      </c>
+      <c r="B22">
+        <v>10163000</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE28312-0D3A-4018-9238-CACA1422DE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0556F5-50FA-4196-8F44-D57CEDEB0E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="215">
   <si>
     <t>나무로 만든 검입니다.</t>
   </si>
@@ -264,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파란포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,10 +383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/Icon/Craft_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -543,14 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파란포션 레시피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파란 포션을 제작할 수 있습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>빨간 포션 레시피</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,10 +706,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Entities/Items/Normal/BlueBottle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 검T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -865,10 +845,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스태미나를 회복합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스턴볼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -895,6 +871,12 @@
   <si>
     <t>10202003, 10202004</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/DropItem/1</t>
+  </si>
+  <si>
+    <t>Sprite/Icon/5</t>
   </si>
 </sst>
 </file>
@@ -1258,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C5"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1278,37 +1260,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>100</v>
-      </c>
-      <c r="J1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -1328,10 +1310,10 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H2">
         <v>99</v>
@@ -1363,10 +1345,10 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3">
         <v>99</v>
@@ -1398,10 +1380,10 @@
         <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4">
         <v>99</v>
@@ -1433,10 +1415,10 @@
         <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>99</v>
@@ -1468,10 +1450,10 @@
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6">
         <v>99</v>
@@ -1503,10 +1485,10 @@
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H7">
         <v>99</v>
@@ -1538,10 +1520,10 @@
         <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8">
         <v>99</v>
@@ -1573,10 +1555,10 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9">
         <v>99</v>
@@ -1608,10 +1590,10 @@
         <v>1500</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10">
         <v>99</v>
@@ -1643,10 +1625,10 @@
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11">
         <v>99</v>
@@ -1678,10 +1660,10 @@
         <v>500</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12">
         <v>99</v>
@@ -1704,7 +1686,7 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
@@ -1713,10 +1695,10 @@
         <v>600</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13">
         <v>99</v>
@@ -1748,10 +1730,10 @@
         <v>3500</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14">
         <v>99</v>
@@ -1783,10 +1765,10 @@
         <v>800</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15">
         <v>99</v>
@@ -1818,10 +1800,10 @@
         <v>1000</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H16">
         <v>99</v>
@@ -1844,19 +1826,19 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
         <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
       </c>
       <c r="E17">
         <v>500</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G17" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1879,19 +1861,19 @@
         <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E18">
         <v>800</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1914,19 +1896,19 @@
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19">
         <v>1500</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1949,19 +1931,19 @@
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E20">
         <v>2500</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1984,19 +1966,19 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E21">
         <v>800</v>
       </c>
       <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
         <v>191</v>
-      </c>
-      <c r="G21" t="s">
-        <v>196</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2019,19 +2001,19 @@
         <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E22">
         <v>2000</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2054,19 +2036,19 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -2098,10 +2080,10 @@
         <v>500</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H24">
         <v>99</v>
@@ -2118,25 +2100,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>10162000</v>
+        <v>10113002</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="E25">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="H25">
         <v>99</v>
@@ -2145,33 +2127,33 @@
         <v>0</v>
       </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>10113002</v>
+        <v>10113003</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H26">
         <v>99</v>
@@ -2188,25 +2170,25 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>10113003</v>
+        <v>10113004</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G27" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H27">
         <v>99</v>
@@ -2223,25 +2205,25 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>10113004</v>
+        <v>10113005</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G28" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H28">
         <v>99</v>
@@ -2258,25 +2240,25 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>10113005</v>
+        <v>10113006</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G29" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H29">
         <v>99</v>
@@ -2293,25 +2275,25 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>10113006</v>
+        <v>10113007</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G30" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H30">
         <v>99</v>
@@ -2328,25 +2310,25 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>10113007</v>
+        <v>10113008</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G31" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H31">
         <v>99</v>
@@ -2363,25 +2345,25 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>10113008</v>
+        <v>10114101</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G32" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H32">
         <v>99</v>
@@ -2398,25 +2380,25 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>10114101</v>
+        <v>10114102</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G33" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H33">
         <v>99</v>
@@ -2433,25 +2415,25 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>10114102</v>
+        <v>10114103</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G34" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H34">
         <v>99</v>
@@ -2468,25 +2450,25 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>10114103</v>
+        <v>10114104</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G35" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H35">
         <v>99</v>
@@ -2503,25 +2485,25 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>10114104</v>
+        <v>10114201</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G36" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H36">
         <v>99</v>
@@ -2538,25 +2520,25 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>10114201</v>
+        <v>10114202</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G37" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H37">
         <v>99</v>
@@ -2573,25 +2555,25 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>10114202</v>
+        <v>10116001</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G38" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H38">
         <v>99</v>
@@ -2608,86 +2590,86 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>10116001</v>
+        <v>10000000</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="H39">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>10116002</v>
+        <v>10001000</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="H40">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>10000000</v>
+        <v>10002000</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>10</v>
@@ -2713,16 +2695,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>10001000</v>
+        <v>10010000</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="D42" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -2731,7 +2713,7 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2748,28 +2730,28 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>10002000</v>
+        <v>10100000</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
@@ -2783,34 +2765,34 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>10010000</v>
+        <v>10110000</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -2818,16 +2800,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>10100000</v>
+        <v>10110001</v>
       </c>
       <c r="B45" t="s">
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2836,16 +2818,16 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H45">
         <v>99</v>
       </c>
       <c r="I45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
@@ -2853,16 +2835,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>10110000</v>
+        <v>10110002</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2871,7 +2853,7 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H46">
         <v>99</v>
@@ -2888,16 +2870,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>10110001</v>
+        <v>10110003</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2923,16 +2905,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>10110002</v>
+        <v>10110004</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2941,7 +2923,7 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H48">
         <v>99</v>
@@ -2958,28 +2940,28 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>10110003</v>
+        <v>10200000</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H49">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -2993,25 +2975,25 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>10110004</v>
+        <v>10300000</v>
       </c>
       <c r="B50" t="s">
         <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H50">
         <v>99</v>
@@ -3028,31 +3010,31 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>10200000</v>
+        <v>10400000</v>
       </c>
       <c r="B51" t="s">
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D51" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="b">
         <v>0</v>
@@ -3063,25 +3045,25 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>10300000</v>
+        <v>10163000</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="E52">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="H52">
         <v>99</v>
@@ -3090,114 +3072,50 @@
         <v>0</v>
       </c>
       <c r="J52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>10400000</v>
+        <v>10116003</v>
       </c>
       <c r="B53" t="s">
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>10163000</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" t="s">
-        <v>213</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>99</v>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="b">
-        <v>1</v>
-      </c>
-      <c r="K54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>10116003</v>
-      </c>
-      <c r="B55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" t="s">
-        <v>214</v>
-      </c>
-      <c r="D55" t="s">
-        <v>215</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>216</v>
-      </c>
-      <c r="G55" t="s">
-        <v>217</v>
-      </c>
-      <c r="H55">
-        <v>99</v>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="b">
-        <v>0</v>
-      </c>
-      <c r="K55" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K53">
-    <sortCondition ref="A2:A53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K51">
+    <sortCondition ref="A2:A51"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3206,10 +3124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046DC669-D6D6-48C0-9A46-A8FD3A6BBB2C}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3221,28 +3139,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" t="s">
-        <v>109</v>
-      </c>
       <c r="H1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -3559,7 +3477,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>10162000</v>
+        <v>10202005</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3577,15 +3495,15 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>10202005</v>
+        <v>10202006</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3606,12 +3524,12 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>10202006</v>
+        <v>10202007</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3632,12 +3550,12 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>10202007</v>
+        <v>10202008</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3658,15 +3576,15 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>10202008</v>
+        <v>10302000</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3684,15 +3602,15 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>10302000</v>
+        <v>10303000</v>
       </c>
       <c r="B19">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3710,12 +3628,12 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>10303000</v>
+        <v>10304000</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3736,15 +3654,15 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>10304000</v>
+        <v>10306000</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3762,15 +3680,15 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>10306000</v>
+        <v>10307000</v>
       </c>
       <c r="B22">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3788,15 +3706,15 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>10307000</v>
+        <v>10308000</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3814,12 +3732,12 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>200</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>10308000</v>
+        <v>10309000</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3840,24 +3758,24 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>10309000</v>
+        <v>10400000</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3866,38 +3784,12 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>10400000</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
-    <sortCondition ref="A2:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">
+    <sortCondition ref="A2:A25"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3908,7 +3800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB882E2-DC2B-4364-A1E7-50F2FE65D6AC}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -3924,22 +3816,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>111</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>112</v>
-      </c>
-      <c r="E1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -4073,10 +3965,10 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4093,10 +3985,10 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4113,10 +4005,10 @@
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4133,10 +4025,10 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4153,10 +4045,10 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4233,10 +4125,10 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -4253,10 +4145,10 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -4273,10 +4165,10 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -4293,10 +4185,10 @@
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -4313,10 +4205,10 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -4333,10 +4225,10 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -4353,10 +4245,10 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F22">
         <v>0</v>

--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0556F5-50FA-4196-8F44-D57CEDEB0E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DF2E48-B8F0-4898-B4FD-4FB74AB981FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="214">
   <si>
     <t>나무로 만든 검입니다.</t>
   </si>
@@ -834,10 +834,6 @@
   </si>
   <si>
     <t>10202006, 10202002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10202008, 10202002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1242,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51:G52"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3051,19 +3047,19 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" t="s">
         <v>206</v>
       </c>
-      <c r="D52" t="s">
-        <v>207</v>
-      </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
+        <v>212</v>
+      </c>
+      <c r="G52" t="s">
         <v>213</v>
-      </c>
-      <c r="G52" t="s">
-        <v>214</v>
       </c>
       <c r="H52">
         <v>99</v>
@@ -3086,19 +3082,19 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" t="s">
         <v>208</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
         <v>209</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>210</v>
-      </c>
-      <c r="G53" t="s">
-        <v>211</v>
       </c>
       <c r="H53">
         <v>99</v>
@@ -3798,10 +3794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB882E2-DC2B-4364-A1E7-50F2FE65D6AC}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4208,7 +4204,7 @@
         <v>203</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -4216,41 +4212,21 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>10116002</v>
+        <v>10116003</v>
       </c>
       <c r="B21">
-        <v>10162000</v>
+        <v>10163000</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" t="s">
         <v>204</v>
       </c>
-      <c r="E21" t="s">
-        <v>205</v>
-      </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>10116003</v>
-      </c>
-      <c r="B22">
-        <v>10163000</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" t="s">
-        <v>205</v>
-      </c>
-      <c r="F22">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DF2E48-B8F0-4898-B4FD-4FB74AB981FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2F968B-895D-422E-B8AA-058894EB70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
@@ -869,10 +869,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Entities/DropItem/1</t>
-  </si>
-  <si>
-    <t>Sprite/Icon/5</t>
+    <t>Sprite/Icon/Normal_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Player/StunBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1238,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3056,10 +3058,10 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G52" t="s">
         <v>212</v>
-      </c>
-      <c r="G52" t="s">
-        <v>213</v>
       </c>
       <c r="H52">
         <v>99</v>
@@ -3123,7 +3125,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3797,7 +3799,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:F21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9112F8EB-F69B-416E-82DD-11913CDD51F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2F968B-895D-422E-B8AA-058894EB70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="214">
   <si>
     <t>나무로 만든 검입니다.</t>
   </si>
@@ -264,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파란포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,10 +383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/Icon/Craft_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -543,14 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파란포션 레시피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파란 포션을 제작할 수 있습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>빨간 포션 레시피</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,10 +706,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Entities/Items/Normal/BlueBottle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 검T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -857,15 +837,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10202008, 10202002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1, 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스태미나를 회복합니다</t>
+    <t>스턴볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터를 정지 시킬수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴볼 레시피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴볼을 제작할 수 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Entities/Items/Normal/Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202003, 10202004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Player/StunBall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1232,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1250,37 +1258,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>100</v>
-      </c>
-      <c r="J1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -1300,10 +1308,10 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H2">
         <v>99</v>
@@ -1335,10 +1343,10 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3">
         <v>99</v>
@@ -1370,10 +1378,10 @@
         <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4">
         <v>99</v>
@@ -1405,10 +1413,10 @@
         <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>99</v>
@@ -1440,10 +1448,10 @@
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6">
         <v>99</v>
@@ -1475,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H7">
         <v>99</v>
@@ -1510,10 +1518,10 @@
         <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8">
         <v>99</v>
@@ -1545,10 +1553,10 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9">
         <v>99</v>
@@ -1580,10 +1588,10 @@
         <v>1500</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10">
         <v>99</v>
@@ -1615,10 +1623,10 @@
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11">
         <v>99</v>
@@ -1650,10 +1658,10 @@
         <v>500</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12">
         <v>99</v>
@@ -1676,7 +1684,7 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
@@ -1685,10 +1693,10 @@
         <v>600</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13">
         <v>99</v>
@@ -1720,10 +1728,10 @@
         <v>3500</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14">
         <v>99</v>
@@ -1755,10 +1763,10 @@
         <v>800</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15">
         <v>99</v>
@@ -1790,10 +1798,10 @@
         <v>1000</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H16">
         <v>99</v>
@@ -1816,19 +1824,19 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
         <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
       </c>
       <c r="E17">
         <v>500</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G17" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1851,19 +1859,19 @@
         <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E18">
         <v>800</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1886,19 +1894,19 @@
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19">
         <v>1500</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1921,19 +1929,19 @@
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E20">
         <v>2500</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1956,19 +1964,19 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E21">
         <v>800</v>
       </c>
       <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
         <v>191</v>
-      </c>
-      <c r="G21" t="s">
-        <v>196</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1991,19 +1999,19 @@
         <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E22">
         <v>2000</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2026,19 +2034,19 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -2070,10 +2078,10 @@
         <v>500</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H24">
         <v>99</v>
@@ -2090,25 +2098,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>10162000</v>
+        <v>10113002</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="E25">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="H25">
         <v>99</v>
@@ -2117,33 +2125,33 @@
         <v>0</v>
       </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>10113002</v>
+        <v>10113003</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H26">
         <v>99</v>
@@ -2152,33 +2160,33 @@
         <v>0</v>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>10113003</v>
+        <v>10113004</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G27" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H27">
         <v>99</v>
@@ -2187,33 +2195,33 @@
         <v>0</v>
       </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>10113004</v>
+        <v>10113005</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G28" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H28">
         <v>99</v>
@@ -2222,33 +2230,33 @@
         <v>0</v>
       </c>
       <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>10113005</v>
+        <v>10113006</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G29" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H29">
         <v>99</v>
@@ -2257,33 +2265,33 @@
         <v>0</v>
       </c>
       <c r="J29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>10113006</v>
+        <v>10113007</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G30" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H30">
         <v>99</v>
@@ -2292,33 +2300,33 @@
         <v>0</v>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>10113007</v>
+        <v>10113008</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G31" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H31">
         <v>99</v>
@@ -2327,33 +2335,33 @@
         <v>0</v>
       </c>
       <c r="J31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>10113008</v>
+        <v>10114101</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G32" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H32">
         <v>99</v>
@@ -2362,33 +2370,33 @@
         <v>0</v>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>10114101</v>
+        <v>10114102</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G33" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H33">
         <v>99</v>
@@ -2397,33 +2405,33 @@
         <v>0</v>
       </c>
       <c r="J33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>10114102</v>
+        <v>10114103</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G34" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H34">
         <v>99</v>
@@ -2432,33 +2440,33 @@
         <v>0</v>
       </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>10114103</v>
+        <v>10114104</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G35" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H35">
         <v>99</v>
@@ -2467,33 +2475,33 @@
         <v>0</v>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>10114104</v>
+        <v>10114201</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G36" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H36">
         <v>99</v>
@@ -2502,33 +2510,33 @@
         <v>0</v>
       </c>
       <c r="J36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>10114201</v>
+        <v>10114202</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G37" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H37">
         <v>99</v>
@@ -2537,33 +2545,33 @@
         <v>0</v>
       </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>10114202</v>
+        <v>10116001</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G38" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H38">
         <v>99</v>
@@ -2572,39 +2580,39 @@
         <v>0</v>
       </c>
       <c r="J38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>10116001</v>
+        <v>10000000</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="H39">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
@@ -2615,31 +2623,31 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>10116002</v>
+        <v>10001000</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="H40">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
@@ -2650,16 +2658,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>10000000</v>
+        <v>10002000</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>10</v>
@@ -2685,16 +2693,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>10001000</v>
+        <v>10010000</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="D42" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -2703,7 +2711,7 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2720,28 +2728,28 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>10002000</v>
+        <v>10100000</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
@@ -2755,34 +2763,34 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>10010000</v>
+        <v>10110000</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -2790,16 +2798,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>10100000</v>
+        <v>10110001</v>
       </c>
       <c r="B45" t="s">
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2808,16 +2816,16 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H45">
         <v>99</v>
       </c>
       <c r="I45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
@@ -2825,16 +2833,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>10110000</v>
+        <v>10110002</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2843,7 +2851,7 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H46">
         <v>99</v>
@@ -2860,16 +2868,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>10110001</v>
+        <v>10110003</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2895,16 +2903,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>10110002</v>
+        <v>10110004</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2913,7 +2921,7 @@
         <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H48">
         <v>99</v>
@@ -2930,28 +2938,28 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>10110003</v>
+        <v>10200000</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H49">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -2965,25 +2973,25 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>10110004</v>
+        <v>10300000</v>
       </c>
       <c r="B50" t="s">
         <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H50">
         <v>99</v>
@@ -3000,31 +3008,31 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>10200000</v>
+        <v>10400000</v>
       </c>
       <c r="B51" t="s">
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D51" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="b">
         <v>0</v>
@@ -3035,25 +3043,25 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>10300000</v>
+        <v>10163000</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="E52">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="H52">
         <v>99</v>
@@ -3062,50 +3070,50 @@
         <v>0</v>
       </c>
       <c r="J52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>10400000</v>
+        <v>10116003</v>
       </c>
       <c r="B53" t="s">
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K53">
-    <sortCondition ref="A2:A53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K51">
+    <sortCondition ref="A2:A51"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3114,10 +3122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046DC669-D6D6-48C0-9A46-A8FD3A6BBB2C}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3129,28 +3137,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" t="s">
-        <v>109</v>
-      </c>
       <c r="H1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -3467,7 +3475,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>10162000</v>
+        <v>10202005</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3485,15 +3493,15 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>10202005</v>
+        <v>10202006</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3514,12 +3522,12 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>10202006</v>
+        <v>10202007</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3540,12 +3548,12 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>10202007</v>
+        <v>10202008</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3566,15 +3574,15 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>10202008</v>
+        <v>10302000</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3592,15 +3600,15 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>10302000</v>
+        <v>10303000</v>
       </c>
       <c r="B19">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3618,12 +3626,12 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>10303000</v>
+        <v>10304000</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3644,15 +3652,15 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>10304000</v>
+        <v>10306000</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3670,15 +3678,15 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>10306000</v>
+        <v>10307000</v>
       </c>
       <c r="B22">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3696,15 +3704,15 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>10307000</v>
+        <v>10308000</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3722,12 +3730,12 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>200</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>10308000</v>
+        <v>10309000</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3748,24 +3756,24 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>10309000</v>
+        <v>10400000</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3774,38 +3782,12 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>10400000</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
-    <sortCondition ref="A2:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">
+    <sortCondition ref="A2:A25"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3817,7 +3799,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3832,22 +3814,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>111</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>112</v>
-      </c>
-      <c r="E1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3981,10 +3963,10 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4001,10 +3983,10 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4021,10 +4003,10 @@
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4041,10 +4023,10 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4061,10 +4043,10 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4141,10 +4123,10 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -4161,10 +4143,10 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -4181,10 +4163,10 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -4201,10 +4183,10 @@
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -4221,10 +4203,10 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -4232,19 +4214,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>10116002</v>
+        <v>10116003</v>
       </c>
       <c r="B21">
-        <v>10162000</v>
+        <v>10163000</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F21">
         <v>0</v>

--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2F968B-895D-422E-B8AA-058894EB70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32380F1A-6EAB-485C-9E9D-35D6F4630B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>10113005</v>
+        <v>10113006</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>10113006</v>
+        <v>10113007</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>10113007</v>
+        <v>10113008</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>10113008</v>
+        <v>10113009</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -3125,7 +3125,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3799,7 +3799,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3940,7 +3940,7 @@
         <v>10011000</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>10202001</v>
@@ -3960,7 +3960,7 @@
         <v>10012000</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="s">
         <v>163</v>
@@ -3980,7 +3980,7 @@
         <v>10013000</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="D9" t="s">
         <v>164</v>
@@ -4000,7 +4000,7 @@
         <v>10014000</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="D10" t="s">
         <v>165</v>
@@ -4020,7 +4020,7 @@
         <v>10021000</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="s">
         <v>166</v>
@@ -4040,7 +4040,7 @@
         <v>10022000</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="D12" t="s">
         <v>181</v>
@@ -4060,7 +4060,7 @@
         <v>10302000</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="D13">
         <v>10306000</v>
@@ -4080,7 +4080,7 @@
         <v>10303000</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>10202005</v>
@@ -4100,7 +4100,7 @@
         <v>10304000</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D15">
         <v>10202007</v>
@@ -4120,7 +4120,7 @@
         <v>10306000</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D16" t="s">
         <v>167</v>
@@ -4140,7 +4140,7 @@
         <v>10307000</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="D17" t="s">
         <v>182</v>
@@ -4160,7 +4160,7 @@
         <v>10308000</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D18" t="s">
         <v>168</v>
@@ -4180,7 +4180,7 @@
         <v>10309000</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="D19" t="s">
         <v>169</v>
@@ -4200,7 +4200,7 @@
         <v>10161000</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="D20" t="s">
         <v>203</v>
@@ -4220,7 +4220,7 @@
         <v>10163000</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="D21" t="s">
         <v>211</v>

--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity\EscapeIsekai\Assets\Resources\ItemData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Team\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32380F1A-6EAB-485C-9E9D-35D6F4630B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4C086E-03E5-44C5-BB4D-6CA00611F8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -1240,23 +1240,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.9140625" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
     <col min="4" max="4" width="44.25" customWidth="1"/>
-    <col min="5" max="5" width="6.58203125" customWidth="1"/>
-    <col min="6" max="6" width="35.9140625" customWidth="1"/>
-    <col min="7" max="7" width="19.4140625" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10202001</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10202002</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10202003</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10202004</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10202005</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10202006</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10202007</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10202008</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10302000</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10303000</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10304000</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10306000</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10307000</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10308000</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10309000</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10011000</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10012000</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10013000</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10014000</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10021000</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10022000</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5000</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10161000</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10113002</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10113003</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10113004</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10113006</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10113007</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10113008</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10113009</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10114101</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>10114102</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10114103</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10114104</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10114201</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10114202</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10116001</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10000000</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>10001000</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10002000</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10010000</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>10100000</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>10110000</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>10110001</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>10110002</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>10110003</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>10110004</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>10200000</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>10300000</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>10400000</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>10163000</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>10116003</v>
       </c>
@@ -3128,14 +3128,14 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000000</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10001000</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10002000</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10010000</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10011000</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10012000</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10013000</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10014000</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10021000</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10022000</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10100000</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10161000</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10202005</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10202006</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10202007</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10202008</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10302000</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10303000</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10304000</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10306000</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10307000</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10308000</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10309000</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10400000</v>
       </c>
@@ -3798,21 +3798,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB882E2-DC2B-4364-A1E7-50F2FE65D6AC}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.4140625" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10110000</v>
       </c>
@@ -3849,10 +3849,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10110001</v>
       </c>
@@ -3869,10 +3869,10 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10110002</v>
       </c>
@@ -3889,10 +3889,10 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10110003</v>
       </c>
@@ -3909,10 +3909,10 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10110004</v>
       </c>
@@ -3929,10 +3929,10 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10114101</v>
       </c>
@@ -3949,10 +3949,10 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10114102</v>
       </c>
@@ -3969,10 +3969,10 @@
         <v>155</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10114103</v>
       </c>
@@ -3989,10 +3989,10 @@
         <v>156</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10114104</v>
       </c>
@@ -4009,10 +4009,10 @@
         <v>155</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10114201</v>
       </c>
@@ -4029,10 +4029,10 @@
         <v>157</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10114202</v>
       </c>
@@ -4049,10 +4049,10 @@
         <v>158</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10113002</v>
       </c>
@@ -4069,10 +4069,10 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10113003</v>
       </c>
@@ -4089,10 +4089,10 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10113004</v>
       </c>
@@ -4109,10 +4109,10 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10113006</v>
       </c>
@@ -4129,10 +4129,10 @@
         <v>159</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10113007</v>
       </c>
@@ -4149,10 +4149,10 @@
         <v>160</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10113008</v>
       </c>
@@ -4169,10 +4169,10 @@
         <v>161</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10113009</v>
       </c>
@@ -4189,10 +4189,10 @@
         <v>161</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10116001</v>
       </c>
@@ -4209,10 +4209,10 @@
         <v>204</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10116003</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>204</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Team\EscapeIsekai\Assets\Resources\ItemData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4C086E-03E5-44C5-BB4D-6CA00611F8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B7E3C9-A0AC-42DC-9FD6-5977AEED78DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -1240,23 +1240,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
     <col min="4" max="4" width="44.25" customWidth="1"/>
-    <col min="5" max="5" width="6.625" customWidth="1"/>
-    <col min="6" max="6" width="35.875" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="6.58203125" customWidth="1"/>
+    <col min="6" max="6" width="35.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>10202001</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>10202002</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>10202003</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>10202004</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>10202005</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>10202006</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>10202007</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>10202008</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>10302000</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10303000</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10304000</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10306000</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10307000</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>10308000</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>10309000</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>10011000</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>10012000</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10013000</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>10014000</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>10021000</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>10022000</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>5000</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>10161000</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10113002</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>10113003</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>10113004</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>10113006</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>10113007</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>10113008</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>10113009</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>10114101</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>10114102</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>10114103</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>10114104</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>10114201</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>10114202</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>10116001</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>10000000</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>10001000</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>10002000</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>10010000</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>10100000</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>10110000</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>10110001</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>10110002</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>10110003</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>10110004</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>10200000</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>10300000</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>10400000</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>10163000</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>10116003</v>
       </c>
@@ -3124,18 +3124,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046DC669-D6D6-48C0-9A46-A8FD3A6BBB2C}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>10000000</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>10001000</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>10002000</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>10010000</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>10011000</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>10012000</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>10013000</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>10014000</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>10021000</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10022000</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10100000</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10161000</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10202005</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>10202006</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>10202007</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>10202008</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>10302000</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10303000</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>10304000</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>10306000</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>10307000</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>10308000</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>10309000</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10400000</v>
       </c>
@@ -3798,21 +3798,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB882E2-DC2B-4364-A1E7-50F2FE65D6AC}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>10110000</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>10110001</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>10110002</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>10110003</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>10110004</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>10114101</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>10114102</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>10114103</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>10114104</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10114201</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10114202</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10113002</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10113003</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>10113004</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>10113006</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>10113007</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>10113008</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10113009</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>10116001</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>10116003</v>
       </c>

--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Team\EscapeIsekai\Assets\Resources\ItemData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityhub\storage\FinalBuild\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4C086E-03E5-44C5-BB4D-6CA00611F8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E60A28-132D-421C-8F3A-F65D78B42DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
+    <workbookView xWindow="4170" yWindow="1395" windowWidth="21555" windowHeight="11385" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3798,7 +3798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB882E2-DC2B-4364-A1E7-50F2FE65D6AC}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B7E3C9-A0AC-42DC-9FD6-5977AEED78DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50906EBA-5717-447C-9C88-6E966CBCD5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
@@ -690,18 +690,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10202006, 10202008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10202005, 10202007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10202006, 10202007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Entities/Items/Normal/RedBottle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -750,10 +738,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10309000, 10306000, 10202006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Entities/Items/Normal/Scroll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -833,10 +817,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10202006, 10202002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1, 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -874,6 +854,26 @@
   </si>
   <si>
     <t>Prefabs/Player/StunBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102006, 10202002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102006, 10102007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102005, 10102007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10202006, 10102008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10139000, 10136000, 10102006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>10202005</v>
+        <v>10102005</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>10202006</v>
+        <v>10102006</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>10202007</v>
+        <v>10102007</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>10202008</v>
+        <v>10102008</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>10302000</v>
+        <v>10132000</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>10303000</v>
+        <v>10133000</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>10304000</v>
+        <v>10134000</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>10306000</v>
+        <v>10136000</v>
       </c>
       <c r="B13" t="s">
         <v>48</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>10307000</v>
+        <v>10137000</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>10308000</v>
+        <v>10138000</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>10309000</v>
+        <v>10139000</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
@@ -1833,10 +1833,10 @@
         <v>500</v>
       </c>
       <c r="F17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1868,10 +1868,10 @@
         <v>800</v>
       </c>
       <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
         <v>189</v>
-      </c>
-      <c r="G18" t="s">
-        <v>193</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1903,10 +1903,10 @@
         <v>1500</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1938,10 +1938,10 @@
         <v>2500</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1973,10 +1973,10 @@
         <v>800</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2008,10 +2008,10 @@
         <v>2000</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2043,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G23" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -2078,7 +2078,7 @@
         <v>500</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G24" t="s">
         <v>89</v>
@@ -2113,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G25" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H25">
         <v>99</v>
@@ -2148,10 +2148,10 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G26" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H26">
         <v>99</v>
@@ -2183,10 +2183,10 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G27" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H27">
         <v>99</v>
@@ -2218,10 +2218,10 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G28" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H28">
         <v>99</v>
@@ -2253,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H29">
         <v>99</v>
@@ -2288,10 +2288,10 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H30">
         <v>99</v>
@@ -2323,10 +2323,10 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H31">
         <v>99</v>
@@ -2358,10 +2358,10 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H32">
         <v>99</v>
@@ -2393,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G33" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H33">
         <v>99</v>
@@ -2428,10 +2428,10 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H34">
         <v>99</v>
@@ -2463,10 +2463,10 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G35" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H35">
         <v>99</v>
@@ -2498,10 +2498,10 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G36" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H36">
         <v>99</v>
@@ -2533,10 +2533,10 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G37" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H37">
         <v>99</v>
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G38" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H38">
         <v>99</v>
@@ -2594,7 +2594,7 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -2629,7 +2629,7 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
@@ -2664,7 +2664,7 @@
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -2699,7 +2699,7 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D42" t="s">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
@@ -2769,7 +2769,7 @@
         <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -2804,7 +2804,7 @@
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
@@ -2839,7 +2839,7 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D46" t="s">
         <v>16</v>
@@ -2874,7 +2874,7 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
@@ -2909,7 +2909,7 @@
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -2944,7 +2944,7 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
@@ -2979,7 +2979,7 @@
         <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -3014,7 +3014,7 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -3049,19 +3049,19 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D52" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G52" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H52">
         <v>99</v>
@@ -3084,19 +3084,19 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D53" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G53" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H53">
         <v>99</v>
@@ -3125,7 +3125,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>10202005</v>
+        <v>10102005</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>10202006</v>
+        <v>10102006</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>10202007</v>
+        <v>10102007</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>10202008</v>
+        <v>10102008</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>10302000</v>
+        <v>10132000</v>
       </c>
       <c r="B18">
         <v>70</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>10303000</v>
+        <v>10133000</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>10304000</v>
+        <v>10134000</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>10306000</v>
+        <v>10136000</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>10307000</v>
+        <v>10137000</v>
       </c>
       <c r="B22">
         <v>50</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>10308000</v>
+        <v>10138000</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>10309000</v>
+        <v>10139000</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3799,7 +3799,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4043,7 +4043,7 @@
         <v>3000</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E12" t="s">
         <v>158</v>
@@ -4057,13 +4057,13 @@
         <v>10113002</v>
       </c>
       <c r="B13">
-        <v>10302000</v>
+        <v>10132000</v>
       </c>
       <c r="C13">
         <v>3000</v>
       </c>
       <c r="D13">
-        <v>10306000</v>
+        <v>10136000</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -4077,13 +4077,13 @@
         <v>10113003</v>
       </c>
       <c r="B14">
-        <v>10303000</v>
+        <v>10133000</v>
       </c>
       <c r="C14">
         <v>100</v>
       </c>
       <c r="D14">
-        <v>10202005</v>
+        <v>10102005</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -4097,13 +4097,13 @@
         <v>10113004</v>
       </c>
       <c r="B15">
-        <v>10304000</v>
+        <v>10134000</v>
       </c>
       <c r="C15">
         <v>500</v>
       </c>
       <c r="D15">
-        <v>10202007</v>
+        <v>10102007</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -4117,13 +4117,13 @@
         <v>10113006</v>
       </c>
       <c r="B16">
-        <v>10306000</v>
+        <v>10136000</v>
       </c>
       <c r="C16">
         <v>1000</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
         <v>159</v>
@@ -4137,13 +4137,13 @@
         <v>10113007</v>
       </c>
       <c r="B17">
-        <v>10307000</v>
+        <v>10137000</v>
       </c>
       <c r="C17">
         <v>5000</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="E17" t="s">
         <v>160</v>
@@ -4157,13 +4157,13 @@
         <v>10113008</v>
       </c>
       <c r="B18">
-        <v>10308000</v>
+        <v>10138000</v>
       </c>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="E18" t="s">
         <v>161</v>
@@ -4177,13 +4177,13 @@
         <v>10113009</v>
       </c>
       <c r="B19">
-        <v>10309000</v>
+        <v>10139000</v>
       </c>
       <c r="C19">
         <v>2000</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="E19" t="s">
         <v>161</v>
@@ -4203,10 +4203,10 @@
         <v>500</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E20" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -4223,10 +4223,10 @@
         <v>500</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F21">
         <v>1</v>

--- a/Assets/Resources/ItemData/ItemExcel.xlsx
+++ b/Assets/Resources/ItemData/ItemExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity\EscapeIsekai\Assets\Resources\ItemData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js022\바탕 화면\WorkSpace\EscapeIsekai\Assets\Resources\ItemData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50906EBA-5717-447C-9C88-6E966CBCD5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4478AA1-C9D1-47EA-94AA-7ED368FE7F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23FCFA80-21D9-4745-B9DA-57060EA57FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -849,10 +849,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/Icon/Normal_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Player/StunBall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -869,11 +865,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10202006, 10102008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10139000, 10136000, 10102006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102006, 10102008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Icon/Normal_8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,9 +942,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -982,7 +982,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1088,7 +1088,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1230,7 +1230,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1240,23 +1240,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36525DF8-9879-4440-9A1B-CB7EE677C95C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A9"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
     <col min="4" max="4" width="44.25" customWidth="1"/>
-    <col min="5" max="5" width="6.58203125" customWidth="1"/>
-    <col min="6" max="6" width="35.83203125" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10202001</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10202002</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10202003</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10202004</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10102005</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10102006</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10102007</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10102008</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10132000</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10133000</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10134000</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10136000</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10137000</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10138000</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10139000</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10011000</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10012000</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10013000</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10014000</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10021000</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10022000</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5000</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10161000</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10113002</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10113003</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10113004</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10113006</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10113007</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10113008</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10113009</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10114101</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>10114102</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10114103</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10114104</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10114201</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10114202</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10116001</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10000000</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>10001000</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10002000</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10010000</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>10100000</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>10110000</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>10110001</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>10110002</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>10110003</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>10110004</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>10200000</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>10300000</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>10400000</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>10163000</v>
       </c>
@@ -3058,10 +3058,10 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G52" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H52">
         <v>99</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>10116003</v>
       </c>
@@ -3124,18 +3124,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046DC669-D6D6-48C0-9A46-A8FD3A6BBB2C}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000000</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10001000</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10002000</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10010000</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10011000</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10012000</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10013000</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10014000</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10021000</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10022000</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10100000</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10161000</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10102005</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10102006</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10102007</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10102008</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10132000</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10133000</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10134000</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10136000</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10137000</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10138000</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10139000</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10400000</v>
       </c>
@@ -3799,20 +3799,20 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10110000</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10110001</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10110002</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10110003</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10110004</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10114101</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10114102</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10114103</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10114104</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10114201</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10114202</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10113002</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10113003</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10113004</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10113006</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10113007</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>5000</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E17" t="s">
         <v>160</v>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10113008</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
         <v>161</v>
@@ -4172,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10113009</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>2000</v>
       </c>
       <c r="D19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E19" t="s">
         <v>161</v>
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10116001</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>500</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E20" t="s">
         <v>199</v>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10116003</v>
       </c>
